--- a/spec_cal/build/lib/cal_star/refdata/starlists/Hamuy1992/Hamuy1992.xlsx
+++ b/spec_cal/build/lib/cal_star/refdata/starlists/Hamuy1992/Hamuy1992.xlsx
@@ -1,35 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://awgfwacnz2-my.sharepoint.com/personal/yliang_365_bifiv_com/Documents/git-code/github/standard_star/spec_cal/src/cal_star/refdata/starlists/Hamuy1992/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_533B1CC5B95DF222BA1E560D54E4E745F2FEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB59F24D-F402-4666-9620-5653B499C6E1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -45,7 +27,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>RA</t>
     </r>
@@ -54,7 +36,7 @@
         <sz val="9"/>
         <color rgb="FF333333"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2(J2000)</t>
     </r>
@@ -81,7 +63,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(V-R</t>
     </r>
@@ -90,7 +72,7 @@
         <sz val="9"/>
         <color rgb="FF333333"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>KC</t>
     </r>
@@ -99,7 +81,7 @@
         <sz val="9.75"/>
         <color rgb="FF333333"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -111,7 +93,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(R-I)</t>
     </r>
@@ -120,7 +102,7 @@
         <sz val="9"/>
         <color rgb="FF333333"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>KC</t>
     </r>
@@ -276,8 +258,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,27 +278,166 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +456,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -353,9 +666,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -379,17 +934,61 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -676,21 +1275,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" ht="30" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +1323,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3">
-        <v>2.90162037037037E-2</v>
+        <v>0.0290162037037037</v>
       </c>
       <c r="C2" s="4" t="str">
         <f>C5</f>
@@ -734,19 +1333,19 @@
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>-6.5000000000000002E-2</v>
+        <v>-0.065</v>
       </c>
       <c r="F2" s="2">
-        <v>0.47799999999999998</v>
+        <v>0.478</v>
       </c>
       <c r="G2" s="2">
-        <v>11.228999999999999</v>
+        <v>11.229</v>
       </c>
       <c r="H2" s="2">
-        <v>0.29499999999999998</v>
+        <v>0.295</v>
       </c>
       <c r="I2" s="2">
-        <v>0.28899999999999998</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -754,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="5">
-        <v>7.9741898148148194E-2</v>
+        <v>0.0797418981481482</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
@@ -766,16 +1365,16 @@
         <v>-0.186</v>
       </c>
       <c r="F3" s="4">
-        <v>0.55700000000000005</v>
+        <v>0.557</v>
       </c>
       <c r="G3" s="4">
         <v>11.522</v>
       </c>
       <c r="H3" s="4">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="I3" s="4">
-        <v>0.36399999999999999</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -792,19 +1391,19 @@
         <v>16</v>
       </c>
       <c r="E4" s="2">
-        <v>-0.66100000000000003</v>
+        <v>-0.661</v>
       </c>
       <c r="F4" s="2">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="G4" s="2">
         <v>11.379</v>
       </c>
       <c r="H4" s="2">
-        <v>-9.2999999999999999E-2</v>
+        <v>-0.093</v>
       </c>
       <c r="I4" s="2">
-        <v>-6.4000000000000001E-2</v>
+        <v>-0.064</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -812,7 +1411,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="5">
-        <v>0.15859027777777801</v>
+        <v>0.158590277777778</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
@@ -821,19 +1420,19 @@
         <v>10</v>
       </c>
       <c r="E5" s="4">
-        <v>-0.28100000000000003</v>
+        <v>-0.281</v>
       </c>
       <c r="F5" s="4">
-        <v>0.46899999999999997</v>
+        <v>0.469</v>
       </c>
       <c r="G5" s="4">
-        <v>13.154999999999999</v>
+        <v>13.155</v>
       </c>
       <c r="H5" s="4">
         <v>0.317</v>
       </c>
       <c r="I5" s="4">
-        <v>0.33200000000000002</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -841,7 +1440,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="3">
-        <v>0.24750231481481499</v>
+        <v>0.247502314814815</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -859,10 +1458,10 @@
         <v>12.214</v>
       </c>
       <c r="H6" s="2">
-        <v>0.26700000000000002</v>
+        <v>0.267</v>
       </c>
       <c r="I6" s="2">
-        <v>0.29299999999999998</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -870,7 +1469,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="5">
-        <v>0.28140625000000002</v>
+        <v>0.28140625</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>23</v>
@@ -879,19 +1478,19 @@
         <v>24</v>
       </c>
       <c r="E7" s="4">
-        <v>-0.57399999999999995</v>
+        <v>-0.574</v>
       </c>
       <c r="F7" s="4">
-        <v>0.17899999999999999</v>
+        <v>0.179</v>
       </c>
       <c r="G7" s="4">
-        <v>10.441000000000001</v>
+        <v>10.441</v>
       </c>
       <c r="H7" s="4">
         <v>0.12</v>
       </c>
       <c r="I7" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -899,7 +1498,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="3">
-        <v>0.36218055555555601</v>
+        <v>0.362180555555556</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -908,16 +1507,16 @@
         <v>16</v>
       </c>
       <c r="E8" s="2">
-        <v>-0.57399999999999995</v>
+        <v>-0.574</v>
       </c>
       <c r="F8" s="2">
         <v>0.22</v>
       </c>
       <c r="G8" s="2">
-        <v>11.858000000000001</v>
+        <v>11.858</v>
       </c>
       <c r="H8" s="2">
-        <v>9.6000000000000002E-2</v>
+        <v>0.096</v>
       </c>
       <c r="I8" s="2">
         <v>0.111</v>
@@ -928,7 +1527,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="5">
-        <v>0.43904861111111099</v>
+        <v>0.439048611111111</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
@@ -937,19 +1536,19 @@
         <v>10</v>
       </c>
       <c r="E9" s="4">
-        <v>-0.16700000000000001</v>
+        <v>-0.167</v>
       </c>
       <c r="F9" s="4">
         <v>0.495</v>
       </c>
       <c r="G9" s="4">
-        <v>12.170999999999999</v>
+        <v>12.171</v>
       </c>
       <c r="H9" s="4">
-        <v>0.32300000000000001</v>
+        <v>0.323</v>
       </c>
       <c r="I9" s="4">
-        <v>0.32900000000000001</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -957,7 +1556,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="3">
-        <v>0.49007986111111101</v>
+        <v>0.490079861111111</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -966,16 +1565,16 @@
         <v>31</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.66400000000000003</v>
+        <v>-0.664</v>
       </c>
       <c r="F10" s="2">
-        <v>0.16200000000000001</v>
+        <v>0.162</v>
       </c>
       <c r="G10" s="2">
         <v>11.504</v>
       </c>
       <c r="H10" s="2">
-        <v>0.17299999999999999</v>
+        <v>0.173</v>
       </c>
       <c r="I10" s="2">
         <v>0.127</v>
@@ -1015,7 +1614,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="3">
-        <v>0.52697569444444403</v>
+        <v>0.526975694444444</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>36</v>
@@ -1024,27 +1623,27 @@
         <v>16</v>
       </c>
       <c r="E12" s="2">
-        <v>-0.65600000000000003</v>
+        <v>-0.656</v>
       </c>
       <c r="F12" s="2">
-        <v>0.16600000000000001</v>
+        <v>0.166</v>
       </c>
       <c r="G12" s="2">
         <v>13.794</v>
       </c>
       <c r="H12" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="I12" s="2">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="25.5">
+    <row r="13" ht="25.5" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="5">
-        <v>0.59150810185185199</v>
+        <v>0.591508101851852</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>38</v>
@@ -1073,7 +1672,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="3">
-        <v>0.65208101851851896</v>
+        <v>0.652081018518519</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
@@ -1082,19 +1681,19 @@
         <v>42</v>
       </c>
       <c r="E14" s="2">
-        <v>2.9000000000000001E-2</v>
+        <v>0.029</v>
       </c>
       <c r="F14" s="2">
-        <v>0.49099999999999999</v>
+        <v>0.491</v>
       </c>
       <c r="G14" s="2">
-        <v>11.797000000000001</v>
+        <v>11.797</v>
       </c>
       <c r="H14" s="2">
-        <v>0.31900000000000001</v>
+        <v>0.319</v>
       </c>
       <c r="I14" s="2">
-        <v>0.34499999999999997</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1102,7 +1701,7 @@
         <v>43</v>
       </c>
       <c r="B15" s="5">
-        <v>0.68302893518518504</v>
+        <v>0.683028935185185</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>44</v>
@@ -1111,19 +1710,19 @@
         <v>16</v>
       </c>
       <c r="E15" s="4">
-        <v>-0.96899999999999997</v>
+        <v>-0.969</v>
       </c>
       <c r="F15" s="4">
-        <v>-0.14399999999999999</v>
+        <v>-0.144</v>
       </c>
       <c r="G15" s="4">
         <v>11.029</v>
       </c>
       <c r="H15" s="4">
-        <v>-9.2999999999999999E-2</v>
+        <v>-0.093</v>
       </c>
       <c r="I15" s="4">
-        <v>-9.6000000000000002E-2</v>
+        <v>-0.096</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1131,7 +1730,7 @@
         <v>45</v>
       </c>
       <c r="B16" s="3">
-        <v>0.77530324074074097</v>
+        <v>0.775303240740741</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>46</v>
@@ -1143,16 +1742,16 @@
         <v>-0.02</v>
       </c>
       <c r="F16" s="2">
-        <v>0.60499999999999998</v>
+        <v>0.605</v>
       </c>
       <c r="G16" s="2">
         <v>10.225</v>
       </c>
       <c r="H16" s="2">
-        <v>0.36599999999999999</v>
+        <v>0.366</v>
       </c>
       <c r="I16" s="2">
-        <v>0.36599999999999999</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1160,7 +1759,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="5">
-        <v>0.84093865740740703</v>
+        <v>0.840938657407407</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>49</v>
@@ -1172,16 +1771,16 @@
         <v>-0.67</v>
       </c>
       <c r="F17" s="4">
-        <v>4.5999999999999999E-2</v>
+        <v>0.046</v>
       </c>
       <c r="G17" s="4">
         <v>12.23</v>
       </c>
       <c r="H17" s="4">
-        <v>-6.2E-2</v>
+        <v>-0.062</v>
       </c>
       <c r="I17" s="4">
-        <v>-7.8E-2</v>
+        <v>-0.078</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1189,7 +1788,7 @@
         <v>50</v>
       </c>
       <c r="B18" s="3">
-        <v>0.95325115740740696</v>
+        <v>0.953251157407407</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>51</v>
@@ -1201,13 +1800,13 @@
         <v>-0.11</v>
       </c>
       <c r="F18" s="2">
-        <v>0.60899999999999999</v>
+        <v>0.609</v>
       </c>
       <c r="G18" s="2">
         <v>12.068</v>
       </c>
       <c r="H18" s="2">
-        <v>0.39700000000000002</v>
+        <v>0.397</v>
       </c>
       <c r="I18" s="2">
         <v>0.372</v>
@@ -1218,7 +1817,7 @@
         <v>52</v>
       </c>
       <c r="B19" s="5">
-        <v>0.97220254629629599</v>
+        <v>0.972202546296296</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>53</v>
@@ -1247,7 +1846,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="3">
-        <v>0.97193518518518496</v>
+        <v>0.971935185185185</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>56</v>
@@ -1256,52 +1855,58 @@
         <v>57</v>
       </c>
       <c r="E20" s="2">
-        <v>-0.84299999999999997</v>
+        <v>-0.843</v>
       </c>
       <c r="F20" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="G20" s="2">
         <v>14.112</v>
       </c>
       <c r="H20" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="I20" s="2">
-        <v>3.1E-2</v>
+        <v>0.031</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>